--- a/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Михаил Ткаченко.xlsx
+++ b/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Михаил Ткаченко.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Сотрудник Михаил Ткаченко. Расчитанная сумма с 5 мая 2024 г. по 6 июня 2024 г. составила: 30086,56 руб.</x:t>
+    <x:t>Сотрудник Михаил Ткаченко. Расчитанная сумма с 5 мая 2024 г. по 6 июня 2024 г. составила: 30806,72 руб.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Сер.№</x:t>
@@ -1975,6 +1975,12 @@
     <x:t>28.05.2024 10:10:41</x:t>
   </x:si>
   <x:si>
+    <x:t>5KKGPOSD120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 7:53:57</x:t>
+  </x:si>
+  <x:si>
     <x:t>5KPHOS5SO</x:t>
   </x:si>
   <x:si>
@@ -2482,6 +2488,12 @@
     <x:t>05.06.2024 10:42:41</x:t>
   </x:si>
   <x:si>
+    <x:t>06.06.2024 12:38:58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 12:38:54</x:t>
+  </x:si>
+  <x:si>
     <x:t>05.06.2024 16:34:12</x:t>
   </x:si>
   <x:si>
@@ -2491,15 +2503,72 @@
     <x:t>05.06.2024 15:02:05</x:t>
   </x:si>
   <x:si>
+    <x:t>06.06.2024 8:45:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 8:45:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 8:45:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 12:38:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 12:38:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 15:08:43</x:t>
+  </x:si>
+  <x:si>
     <x:t>05.06.2024 15:01:31</x:t>
   </x:si>
   <x:si>
+    <x:t>06.06.2024 15:08:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 15:08:47</x:t>
+  </x:si>
+  <x:si>
     <x:t>05.06.2024 16:34:10</x:t>
   </x:si>
   <x:si>
+    <x:t>06.06.2024 12:39:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 15:08:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 15:08:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 12:38:59</x:t>
+  </x:si>
+  <x:si>
     <x:t>05.06.2024 16:34:13</x:t>
   </x:si>
   <x:si>
+    <x:t>06.06.2024 12:39:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 12:39:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 10:28:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 12:39:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 12:39:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 8:45:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 8:45:08</x:t>
+  </x:si>
+  <x:si>
     <x:t>05.06.2024 16:34:16</x:t>
   </x:si>
   <x:si>
@@ -2510,6 +2579,9 @@
   </x:si>
   <x:si>
     <x:t>05.06.2024 15:01:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06.06.2024 7:53:58</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2887,7 +2959,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:S745"/>
+  <x:dimension ref="A1:S768"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -16618,16 +16690,16 @@
     </x:row>
     <x:row r="573" spans="1:19">
       <x:c r="A573" s="0">
-        <x:v>13628</x:v>
+        <x:v>13582</x:v>
       </x:c>
       <x:c r="B573" s="0" t="s">
         <x:v>653</x:v>
       </x:c>
       <x:c r="C573" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D573" s="0">
-        <x:v>12605</x:v>
+        <x:v>12636</x:v>
       </x:c>
       <x:c r="E573" s="0" t="s">
         <x:v>22</x:v>
@@ -16641,10 +16713,10 @@
     </x:row>
     <x:row r="574" spans="1:19">
       <x:c r="A574" s="0">
-        <x:v>13629</x:v>
+        <x:v>13628</x:v>
       </x:c>
       <x:c r="B574" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C574" s="0" t="s">
         <x:v>224</x:v>
@@ -16656,7 +16728,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R574" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="S574" s="0" t="s">
         <x:v>24</x:v>
@@ -16664,10 +16736,10 @@
     </x:row>
     <x:row r="575" spans="1:19">
       <x:c r="A575" s="0">
-        <x:v>13630</x:v>
+        <x:v>13629</x:v>
       </x:c>
       <x:c r="B575" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C575" s="0" t="s">
         <x:v>224</x:v>
@@ -16679,7 +16751,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R575" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="S575" s="0" t="s">
         <x:v>24</x:v>
@@ -16687,10 +16759,10 @@
     </x:row>
     <x:row r="576" spans="1:19">
       <x:c r="A576" s="0">
-        <x:v>13631</x:v>
+        <x:v>13630</x:v>
       </x:c>
       <x:c r="B576" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C576" s="0" t="s">
         <x:v>224</x:v>
@@ -16702,7 +16774,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R576" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="S576" s="0" t="s">
         <x:v>24</x:v>
@@ -16710,10 +16782,10 @@
     </x:row>
     <x:row r="577" spans="1:19">
       <x:c r="A577" s="0">
-        <x:v>13632</x:v>
+        <x:v>13631</x:v>
       </x:c>
       <x:c r="B577" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C577" s="0" t="s">
         <x:v>224</x:v>
@@ -16725,7 +16797,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R577" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="S577" s="0" t="s">
         <x:v>24</x:v>
@@ -16733,10 +16805,10 @@
     </x:row>
     <x:row r="578" spans="1:19">
       <x:c r="A578" s="0">
-        <x:v>13633</x:v>
+        <x:v>13632</x:v>
       </x:c>
       <x:c r="B578" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C578" s="0" t="s">
         <x:v>224</x:v>
@@ -16748,7 +16820,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R578" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="S578" s="0" t="s">
         <x:v>24</x:v>
@@ -16756,10 +16828,10 @@
     </x:row>
     <x:row r="579" spans="1:19">
       <x:c r="A579" s="0">
-        <x:v>13635</x:v>
+        <x:v>13633</x:v>
       </x:c>
       <x:c r="B579" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C579" s="0" t="s">
         <x:v>224</x:v>
@@ -16771,7 +16843,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R579" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="S579" s="0" t="s">
         <x:v>24</x:v>
@@ -16779,10 +16851,10 @@
     </x:row>
     <x:row r="580" spans="1:19">
       <x:c r="A580" s="0">
-        <x:v>13636</x:v>
+        <x:v>13635</x:v>
       </x:c>
       <x:c r="B580" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C580" s="0" t="s">
         <x:v>224</x:v>
@@ -16794,7 +16866,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R580" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="S580" s="0" t="s">
         <x:v>24</x:v>
@@ -16802,10 +16874,10 @@
     </x:row>
     <x:row r="581" spans="1:19">
       <x:c r="A581" s="0">
-        <x:v>13637</x:v>
+        <x:v>13636</x:v>
       </x:c>
       <x:c r="B581" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C581" s="0" t="s">
         <x:v>224</x:v>
@@ -16817,7 +16889,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R581" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="S581" s="0" t="s">
         <x:v>24</x:v>
@@ -16825,16 +16897,16 @@
     </x:row>
     <x:row r="582" spans="1:19">
       <x:c r="A582" s="0">
-        <x:v>13639</x:v>
+        <x:v>13637</x:v>
       </x:c>
       <x:c r="B582" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C582" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D582" s="0">
-        <x:v>12604</x:v>
+        <x:v>12605</x:v>
       </x:c>
       <x:c r="E582" s="0" t="s">
         <x:v>22</x:v>
@@ -16848,10 +16920,10 @@
     </x:row>
     <x:row r="583" spans="1:19">
       <x:c r="A583" s="0">
-        <x:v>13640</x:v>
+        <x:v>13639</x:v>
       </x:c>
       <x:c r="B583" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="C583" s="0" t="s">
         <x:v>50</x:v>
@@ -16863,7 +16935,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R583" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="S583" s="0" t="s">
         <x:v>24</x:v>
@@ -16871,10 +16943,10 @@
     </x:row>
     <x:row r="584" spans="1:19">
       <x:c r="A584" s="0">
-        <x:v>13641</x:v>
+        <x:v>13640</x:v>
       </x:c>
       <x:c r="B584" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="C584" s="0" t="s">
         <x:v>50</x:v>
@@ -16886,7 +16958,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R584" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="S584" s="0" t="s">
         <x:v>24</x:v>
@@ -16894,10 +16966,10 @@
     </x:row>
     <x:row r="585" spans="1:19">
       <x:c r="A585" s="0">
-        <x:v>13642</x:v>
+        <x:v>13641</x:v>
       </x:c>
       <x:c r="B585" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="C585" s="0" t="s">
         <x:v>50</x:v>
@@ -16909,7 +16981,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R585" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="S585" s="0" t="s">
         <x:v>24</x:v>
@@ -16917,10 +16989,10 @@
     </x:row>
     <x:row r="586" spans="1:19">
       <x:c r="A586" s="0">
-        <x:v>13643</x:v>
+        <x:v>13642</x:v>
       </x:c>
       <x:c r="B586" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="C586" s="0" t="s">
         <x:v>50</x:v>
@@ -16932,7 +17004,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R586" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="S586" s="0" t="s">
         <x:v>24</x:v>
@@ -16940,22 +17012,22 @@
     </x:row>
     <x:row r="587" spans="1:19">
       <x:c r="A587" s="0">
-        <x:v>13644</x:v>
+        <x:v>13643</x:v>
       </x:c>
       <x:c r="B587" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="C587" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D587" s="0">
-        <x:v>12615</x:v>
+        <x:v>12604</x:v>
       </x:c>
       <x:c r="E587" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R587" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="S587" s="0" t="s">
         <x:v>24</x:v>
@@ -16963,7 +17035,7 @@
     </x:row>
     <x:row r="588" spans="1:19">
       <x:c r="A588" s="0">
-        <x:v>13645</x:v>
+        <x:v>13644</x:v>
       </x:c>
       <x:c r="B588" s="0" t="s">
         <x:v>32</x:v>
@@ -16978,7 +17050,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R588" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="S588" s="0" t="s">
         <x:v>24</x:v>
@@ -16986,7 +17058,7 @@
     </x:row>
     <x:row r="589" spans="1:19">
       <x:c r="A589" s="0">
-        <x:v>13646</x:v>
+        <x:v>13645</x:v>
       </x:c>
       <x:c r="B589" s="0" t="s">
         <x:v>32</x:v>
@@ -17001,7 +17073,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R589" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="S589" s="0" t="s">
         <x:v>24</x:v>
@@ -17009,7 +17081,7 @@
     </x:row>
     <x:row r="590" spans="1:19">
       <x:c r="A590" s="0">
-        <x:v>13647</x:v>
+        <x:v>13646</x:v>
       </x:c>
       <x:c r="B590" s="0" t="s">
         <x:v>32</x:v>
@@ -17024,7 +17096,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R590" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="S590" s="0" t="s">
         <x:v>24</x:v>
@@ -17032,7 +17104,7 @@
     </x:row>
     <x:row r="591" spans="1:19">
       <x:c r="A591" s="0">
-        <x:v>13648</x:v>
+        <x:v>13647</x:v>
       </x:c>
       <x:c r="B591" s="0" t="s">
         <x:v>32</x:v>
@@ -17047,7 +17119,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R591" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="S591" s="0" t="s">
         <x:v>24</x:v>
@@ -17055,7 +17127,7 @@
     </x:row>
     <x:row r="592" spans="1:19">
       <x:c r="A592" s="0">
-        <x:v>13649</x:v>
+        <x:v>13648</x:v>
       </x:c>
       <x:c r="B592" s="0" t="s">
         <x:v>32</x:v>
@@ -17070,7 +17142,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R592" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="S592" s="0" t="s">
         <x:v>24</x:v>
@@ -17078,7 +17150,7 @@
     </x:row>
     <x:row r="593" spans="1:19">
       <x:c r="A593" s="0">
-        <x:v>13650</x:v>
+        <x:v>13649</x:v>
       </x:c>
       <x:c r="B593" s="0" t="s">
         <x:v>32</x:v>
@@ -17093,7 +17165,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R593" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="S593" s="0" t="s">
         <x:v>24</x:v>
@@ -17101,7 +17173,7 @@
     </x:row>
     <x:row r="594" spans="1:19">
       <x:c r="A594" s="0">
-        <x:v>13651</x:v>
+        <x:v>13650</x:v>
       </x:c>
       <x:c r="B594" s="0" t="s">
         <x:v>32</x:v>
@@ -17116,7 +17188,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R594" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="S594" s="0" t="s">
         <x:v>24</x:v>
@@ -17124,7 +17196,7 @@
     </x:row>
     <x:row r="595" spans="1:19">
       <x:c r="A595" s="0">
-        <x:v>13652</x:v>
+        <x:v>13651</x:v>
       </x:c>
       <x:c r="B595" s="0" t="s">
         <x:v>32</x:v>
@@ -17139,7 +17211,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R595" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="S595" s="0" t="s">
         <x:v>24</x:v>
@@ -17147,7 +17219,7 @@
     </x:row>
     <x:row r="596" spans="1:19">
       <x:c r="A596" s="0">
-        <x:v>13653</x:v>
+        <x:v>13652</x:v>
       </x:c>
       <x:c r="B596" s="0" t="s">
         <x:v>32</x:v>
@@ -17162,7 +17234,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R596" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="S596" s="0" t="s">
         <x:v>24</x:v>
@@ -17170,7 +17242,7 @@
     </x:row>
     <x:row r="597" spans="1:19">
       <x:c r="A597" s="0">
-        <x:v>13654</x:v>
+        <x:v>13653</x:v>
       </x:c>
       <x:c r="B597" s="0" t="s">
         <x:v>32</x:v>
@@ -17185,7 +17257,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R597" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="S597" s="0" t="s">
         <x:v>24</x:v>
@@ -17193,7 +17265,7 @@
     </x:row>
     <x:row r="598" spans="1:19">
       <x:c r="A598" s="0">
-        <x:v>13655</x:v>
+        <x:v>13654</x:v>
       </x:c>
       <x:c r="B598" s="0" t="s">
         <x:v>32</x:v>
@@ -17208,7 +17280,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R598" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="S598" s="0" t="s">
         <x:v>24</x:v>
@@ -17216,7 +17288,7 @@
     </x:row>
     <x:row r="599" spans="1:19">
       <x:c r="A599" s="0">
-        <x:v>13656</x:v>
+        <x:v>13655</x:v>
       </x:c>
       <x:c r="B599" s="0" t="s">
         <x:v>32</x:v>
@@ -17231,7 +17303,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R599" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="S599" s="0" t="s">
         <x:v>24</x:v>
@@ -17239,7 +17311,7 @@
     </x:row>
     <x:row r="600" spans="1:19">
       <x:c r="A600" s="0">
-        <x:v>13657</x:v>
+        <x:v>13656</x:v>
       </x:c>
       <x:c r="B600" s="0" t="s">
         <x:v>32</x:v>
@@ -17254,7 +17326,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R600" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="S600" s="0" t="s">
         <x:v>24</x:v>
@@ -17262,7 +17334,7 @@
     </x:row>
     <x:row r="601" spans="1:19">
       <x:c r="A601" s="0">
-        <x:v>13658</x:v>
+        <x:v>13657</x:v>
       </x:c>
       <x:c r="B601" s="0" t="s">
         <x:v>32</x:v>
@@ -17277,7 +17349,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R601" s="0" t="s">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="S601" s="0" t="s">
         <x:v>24</x:v>
@@ -17285,7 +17357,7 @@
     </x:row>
     <x:row r="602" spans="1:19">
       <x:c r="A602" s="0">
-        <x:v>13659</x:v>
+        <x:v>13658</x:v>
       </x:c>
       <x:c r="B602" s="0" t="s">
         <x:v>32</x:v>
@@ -17300,7 +17372,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R602" s="0" t="s">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="S602" s="0" t="s">
         <x:v>24</x:v>
@@ -17308,7 +17380,7 @@
     </x:row>
     <x:row r="603" spans="1:19">
       <x:c r="A603" s="0">
-        <x:v>13660</x:v>
+        <x:v>13659</x:v>
       </x:c>
       <x:c r="B603" s="0" t="s">
         <x:v>32</x:v>
@@ -17323,7 +17395,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R603" s="0" t="s">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="S603" s="0" t="s">
         <x:v>24</x:v>
@@ -17331,7 +17403,7 @@
     </x:row>
     <x:row r="604" spans="1:19">
       <x:c r="A604" s="0">
-        <x:v>13661</x:v>
+        <x:v>13660</x:v>
       </x:c>
       <x:c r="B604" s="0" t="s">
         <x:v>32</x:v>
@@ -17346,7 +17418,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R604" s="0" t="s">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="S604" s="0" t="s">
         <x:v>24</x:v>
@@ -17354,7 +17426,7 @@
     </x:row>
     <x:row r="605" spans="1:19">
       <x:c r="A605" s="0">
-        <x:v>13662</x:v>
+        <x:v>13661</x:v>
       </x:c>
       <x:c r="B605" s="0" t="s">
         <x:v>32</x:v>
@@ -17369,7 +17441,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R605" s="0" t="s">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="S605" s="0" t="s">
         <x:v>24</x:v>
@@ -17377,7 +17449,7 @@
     </x:row>
     <x:row r="606" spans="1:19">
       <x:c r="A606" s="0">
-        <x:v>13663</x:v>
+        <x:v>13662</x:v>
       </x:c>
       <x:c r="B606" s="0" t="s">
         <x:v>32</x:v>
@@ -17392,7 +17464,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R606" s="0" t="s">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="S606" s="0" t="s">
         <x:v>24</x:v>
@@ -17400,7 +17472,7 @@
     </x:row>
     <x:row r="607" spans="1:19">
       <x:c r="A607" s="0">
-        <x:v>13664</x:v>
+        <x:v>13663</x:v>
       </x:c>
       <x:c r="B607" s="0" t="s">
         <x:v>32</x:v>
@@ -17415,7 +17487,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R607" s="0" t="s">
-        <x:v>687</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="S607" s="0" t="s">
         <x:v>24</x:v>
@@ -17423,7 +17495,7 @@
     </x:row>
     <x:row r="608" spans="1:19">
       <x:c r="A608" s="0">
-        <x:v>13665</x:v>
+        <x:v>13664</x:v>
       </x:c>
       <x:c r="B608" s="0" t="s">
         <x:v>32</x:v>
@@ -17438,7 +17510,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R608" s="0" t="s">
-        <x:v>688</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="S608" s="0" t="s">
         <x:v>24</x:v>
@@ -17446,7 +17518,7 @@
     </x:row>
     <x:row r="609" spans="1:19">
       <x:c r="A609" s="0">
-        <x:v>13666</x:v>
+        <x:v>13665</x:v>
       </x:c>
       <x:c r="B609" s="0" t="s">
         <x:v>32</x:v>
@@ -17461,7 +17533,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R609" s="0" t="s">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="S609" s="0" t="s">
         <x:v>24</x:v>
@@ -17469,7 +17541,7 @@
     </x:row>
     <x:row r="610" spans="1:19">
       <x:c r="A610" s="0">
-        <x:v>13667</x:v>
+        <x:v>13666</x:v>
       </x:c>
       <x:c r="B610" s="0" t="s">
         <x:v>32</x:v>
@@ -17484,7 +17556,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R610" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="S610" s="0" t="s">
         <x:v>24</x:v>
@@ -17492,7 +17564,7 @@
     </x:row>
     <x:row r="611" spans="1:19">
       <x:c r="A611" s="0">
-        <x:v>13668</x:v>
+        <x:v>13667</x:v>
       </x:c>
       <x:c r="B611" s="0" t="s">
         <x:v>32</x:v>
@@ -17507,7 +17579,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R611" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="S611" s="0" t="s">
         <x:v>24</x:v>
@@ -17515,7 +17587,7 @@
     </x:row>
     <x:row r="612" spans="1:19">
       <x:c r="A612" s="0">
-        <x:v>13669</x:v>
+        <x:v>13668</x:v>
       </x:c>
       <x:c r="B612" s="0" t="s">
         <x:v>32</x:v>
@@ -17530,7 +17602,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R612" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="S612" s="0" t="s">
         <x:v>24</x:v>
@@ -17538,7 +17610,7 @@
     </x:row>
     <x:row r="613" spans="1:19">
       <x:c r="A613" s="0">
-        <x:v>13670</x:v>
+        <x:v>13669</x:v>
       </x:c>
       <x:c r="B613" s="0" t="s">
         <x:v>32</x:v>
@@ -17553,7 +17625,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R613" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="S613" s="0" t="s">
         <x:v>24</x:v>
@@ -17561,7 +17633,7 @@
     </x:row>
     <x:row r="614" spans="1:19">
       <x:c r="A614" s="0">
-        <x:v>13671</x:v>
+        <x:v>13670</x:v>
       </x:c>
       <x:c r="B614" s="0" t="s">
         <x:v>32</x:v>
@@ -17576,7 +17648,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R614" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="S614" s="0" t="s">
         <x:v>24</x:v>
@@ -17584,7 +17656,7 @@
     </x:row>
     <x:row r="615" spans="1:19">
       <x:c r="A615" s="0">
-        <x:v>13672</x:v>
+        <x:v>13671</x:v>
       </x:c>
       <x:c r="B615" s="0" t="s">
         <x:v>32</x:v>
@@ -17599,7 +17671,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R615" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="S615" s="0" t="s">
         <x:v>24</x:v>
@@ -17607,7 +17679,7 @@
     </x:row>
     <x:row r="616" spans="1:19">
       <x:c r="A616" s="0">
-        <x:v>13673</x:v>
+        <x:v>13672</x:v>
       </x:c>
       <x:c r="B616" s="0" t="s">
         <x:v>32</x:v>
@@ -17622,7 +17694,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R616" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="S616" s="0" t="s">
         <x:v>24</x:v>
@@ -17630,13 +17702,13 @@
     </x:row>
     <x:row r="617" spans="1:19">
       <x:c r="A617" s="0">
-        <x:v>13714</x:v>
+        <x:v>13673</x:v>
       </x:c>
       <x:c r="B617" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C617" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D617" s="0">
         <x:v>12615</x:v>
@@ -17645,7 +17717,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R617" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="S617" s="0" t="s">
         <x:v>24</x:v>
@@ -17653,7 +17725,7 @@
     </x:row>
     <x:row r="618" spans="1:19">
       <x:c r="A618" s="0">
-        <x:v>13715</x:v>
+        <x:v>13714</x:v>
       </x:c>
       <x:c r="B618" s="0" t="s">
         <x:v>174</x:v>
@@ -17668,7 +17740,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R618" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="S618" s="0" t="s">
         <x:v>24</x:v>
@@ -17676,7 +17748,7 @@
     </x:row>
     <x:row r="619" spans="1:19">
       <x:c r="A619" s="0">
-        <x:v>13716</x:v>
+        <x:v>13715</x:v>
       </x:c>
       <x:c r="B619" s="0" t="s">
         <x:v>174</x:v>
@@ -17691,7 +17763,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R619" s="0" t="s">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="S619" s="0" t="s">
         <x:v>24</x:v>
@@ -17699,7 +17771,7 @@
     </x:row>
     <x:row r="620" spans="1:19">
       <x:c r="A620" s="0">
-        <x:v>13717</x:v>
+        <x:v>13716</x:v>
       </x:c>
       <x:c r="B620" s="0" t="s">
         <x:v>174</x:v>
@@ -17714,7 +17786,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R620" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="S620" s="0" t="s">
         <x:v>24</x:v>
@@ -17722,7 +17794,7 @@
     </x:row>
     <x:row r="621" spans="1:19">
       <x:c r="A621" s="0">
-        <x:v>13718</x:v>
+        <x:v>13717</x:v>
       </x:c>
       <x:c r="B621" s="0" t="s">
         <x:v>174</x:v>
@@ -17737,7 +17809,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R621" s="0" t="s">
-        <x:v>698</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="S621" s="0" t="s">
         <x:v>24</x:v>
@@ -17745,7 +17817,7 @@
     </x:row>
     <x:row r="622" spans="1:19">
       <x:c r="A622" s="0">
-        <x:v>13719</x:v>
+        <x:v>13718</x:v>
       </x:c>
       <x:c r="B622" s="0" t="s">
         <x:v>174</x:v>
@@ -17760,7 +17832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R622" s="0" t="s">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="S622" s="0" t="s">
         <x:v>24</x:v>
@@ -17768,7 +17840,7 @@
     </x:row>
     <x:row r="623" spans="1:19">
       <x:c r="A623" s="0">
-        <x:v>13720</x:v>
+        <x:v>13719</x:v>
       </x:c>
       <x:c r="B623" s="0" t="s">
         <x:v>174</x:v>
@@ -17783,7 +17855,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R623" s="0" t="s">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="S623" s="0" t="s">
         <x:v>24</x:v>
@@ -17791,7 +17863,7 @@
     </x:row>
     <x:row r="624" spans="1:19">
       <x:c r="A624" s="0">
-        <x:v>13721</x:v>
+        <x:v>13720</x:v>
       </x:c>
       <x:c r="B624" s="0" t="s">
         <x:v>174</x:v>
@@ -17806,7 +17878,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R624" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="S624" s="0" t="s">
         <x:v>24</x:v>
@@ -17814,7 +17886,7 @@
     </x:row>
     <x:row r="625" spans="1:19">
       <x:c r="A625" s="0">
-        <x:v>13722</x:v>
+        <x:v>13721</x:v>
       </x:c>
       <x:c r="B625" s="0" t="s">
         <x:v>174</x:v>
@@ -17829,7 +17901,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R625" s="0" t="s">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="S625" s="0" t="s">
         <x:v>24</x:v>
@@ -17837,7 +17909,7 @@
     </x:row>
     <x:row r="626" spans="1:19">
       <x:c r="A626" s="0">
-        <x:v>13728</x:v>
+        <x:v>13722</x:v>
       </x:c>
       <x:c r="B626" s="0" t="s">
         <x:v>174</x:v>
@@ -17852,7 +17924,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R626" s="0" t="s">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="S626" s="0" t="s">
         <x:v>24</x:v>
@@ -17860,7 +17932,7 @@
     </x:row>
     <x:row r="627" spans="1:19">
       <x:c r="A627" s="0">
-        <x:v>13729</x:v>
+        <x:v>13728</x:v>
       </x:c>
       <x:c r="B627" s="0" t="s">
         <x:v>174</x:v>
@@ -17875,7 +17947,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R627" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="S627" s="0" t="s">
         <x:v>24</x:v>
@@ -17883,7 +17955,7 @@
     </x:row>
     <x:row r="628" spans="1:19">
       <x:c r="A628" s="0">
-        <x:v>13730</x:v>
+        <x:v>13729</x:v>
       </x:c>
       <x:c r="B628" s="0" t="s">
         <x:v>174</x:v>
@@ -17898,7 +17970,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R628" s="0" t="s">
-        <x:v>704</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="S628" s="0" t="s">
         <x:v>24</x:v>
@@ -17906,7 +17978,7 @@
     </x:row>
     <x:row r="629" spans="1:19">
       <x:c r="A629" s="0">
-        <x:v>13731</x:v>
+        <x:v>13730</x:v>
       </x:c>
       <x:c r="B629" s="0" t="s">
         <x:v>174</x:v>
@@ -17921,7 +17993,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R629" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="S629" s="0" t="s">
         <x:v>24</x:v>
@@ -17929,7 +18001,7 @@
     </x:row>
     <x:row r="630" spans="1:19">
       <x:c r="A630" s="0">
-        <x:v>13733</x:v>
+        <x:v>13731</x:v>
       </x:c>
       <x:c r="B630" s="0" t="s">
         <x:v>174</x:v>
@@ -17944,7 +18016,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R630" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="S630" s="0" t="s">
         <x:v>24</x:v>
@@ -17952,7 +18024,7 @@
     </x:row>
     <x:row r="631" spans="1:19">
       <x:c r="A631" s="0">
-        <x:v>13737</x:v>
+        <x:v>13733</x:v>
       </x:c>
       <x:c r="B631" s="0" t="s">
         <x:v>174</x:v>
@@ -17967,7 +18039,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R631" s="0" t="s">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="S631" s="0" t="s">
         <x:v>24</x:v>
@@ -17975,7 +18047,7 @@
     </x:row>
     <x:row r="632" spans="1:19">
       <x:c r="A632" s="0">
-        <x:v>13738</x:v>
+        <x:v>13737</x:v>
       </x:c>
       <x:c r="B632" s="0" t="s">
         <x:v>174</x:v>
@@ -17990,7 +18062,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R632" s="0" t="s">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="S632" s="0" t="s">
         <x:v>24</x:v>
@@ -17998,7 +18070,7 @@
     </x:row>
     <x:row r="633" spans="1:19">
       <x:c r="A633" s="0">
-        <x:v>13739</x:v>
+        <x:v>13738</x:v>
       </x:c>
       <x:c r="B633" s="0" t="s">
         <x:v>174</x:v>
@@ -18013,7 +18085,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R633" s="0" t="s">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="S633" s="0" t="s">
         <x:v>24</x:v>
@@ -18021,7 +18093,7 @@
     </x:row>
     <x:row r="634" spans="1:19">
       <x:c r="A634" s="0">
-        <x:v>13743</x:v>
+        <x:v>13739</x:v>
       </x:c>
       <x:c r="B634" s="0" t="s">
         <x:v>174</x:v>
@@ -18036,7 +18108,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R634" s="0" t="s">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="S634" s="0" t="s">
         <x:v>24</x:v>
@@ -18044,7 +18116,7 @@
     </x:row>
     <x:row r="635" spans="1:19">
       <x:c r="A635" s="0">
-        <x:v>13745</x:v>
+        <x:v>13743</x:v>
       </x:c>
       <x:c r="B635" s="0" t="s">
         <x:v>174</x:v>
@@ -18059,7 +18131,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R635" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="S635" s="0" t="s">
         <x:v>24</x:v>
@@ -18067,7 +18139,7 @@
     </x:row>
     <x:row r="636" spans="1:19">
       <x:c r="A636" s="0">
-        <x:v>13746</x:v>
+        <x:v>13745</x:v>
       </x:c>
       <x:c r="B636" s="0" t="s">
         <x:v>174</x:v>
@@ -18082,7 +18154,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R636" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="S636" s="0" t="s">
         <x:v>24</x:v>
@@ -18090,22 +18162,22 @@
     </x:row>
     <x:row r="637" spans="1:19">
       <x:c r="A637" s="0">
-        <x:v>13754</x:v>
+        <x:v>13746</x:v>
       </x:c>
       <x:c r="B637" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C637" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="D637" s="0">
-        <x:v>12619</x:v>
+        <x:v>12615</x:v>
       </x:c>
       <x:c r="E637" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R637" s="0" t="s">
-        <x:v>713</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="S637" s="0" t="s">
         <x:v>24</x:v>
@@ -18113,22 +18185,22 @@
     </x:row>
     <x:row r="638" spans="1:19">
       <x:c r="A638" s="0">
-        <x:v>13755</x:v>
+        <x:v>13754</x:v>
       </x:c>
       <x:c r="B638" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C638" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D638" s="0">
-        <x:v>12621</x:v>
+        <x:v>12619</x:v>
       </x:c>
       <x:c r="E638" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R638" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="S638" s="0" t="s">
         <x:v>24</x:v>
@@ -18136,7 +18208,7 @@
     </x:row>
     <x:row r="639" spans="1:19">
       <x:c r="A639" s="0">
-        <x:v>13756</x:v>
+        <x:v>13755</x:v>
       </x:c>
       <x:c r="B639" s="0" t="s">
         <x:v>20</x:v>
@@ -18151,7 +18223,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R639" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="S639" s="0" t="s">
         <x:v>24</x:v>
@@ -18159,22 +18231,22 @@
     </x:row>
     <x:row r="640" spans="1:19">
       <x:c r="A640" s="0">
-        <x:v>13757</x:v>
+        <x:v>13756</x:v>
       </x:c>
       <x:c r="B640" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C640" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D640" s="0">
-        <x:v>12619</x:v>
+        <x:v>12621</x:v>
       </x:c>
       <x:c r="E640" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R640" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="S640" s="0" t="s">
         <x:v>24</x:v>
@@ -18182,22 +18254,22 @@
     </x:row>
     <x:row r="641" spans="1:19">
       <x:c r="A641" s="0">
-        <x:v>13758</x:v>
+        <x:v>13757</x:v>
       </x:c>
       <x:c r="B641" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C641" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D641" s="0">
-        <x:v>12585</x:v>
+        <x:v>12619</x:v>
       </x:c>
       <x:c r="E641" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R641" s="0" t="s">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="S641" s="0" t="s">
         <x:v>24</x:v>
@@ -18205,7 +18277,7 @@
     </x:row>
     <x:row r="642" spans="1:19">
       <x:c r="A642" s="0">
-        <x:v>13759</x:v>
+        <x:v>13758</x:v>
       </x:c>
       <x:c r="B642" s="0" t="s">
         <x:v>40</x:v>
@@ -18220,7 +18292,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R642" s="0" t="s">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="S642" s="0" t="s">
         <x:v>24</x:v>
@@ -18228,22 +18300,22 @@
     </x:row>
     <x:row r="643" spans="1:19">
       <x:c r="A643" s="0">
-        <x:v>13760</x:v>
+        <x:v>13759</x:v>
       </x:c>
       <x:c r="B643" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C643" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D643" s="0">
-        <x:v>12621</x:v>
+        <x:v>12585</x:v>
       </x:c>
       <x:c r="E643" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R643" s="0" t="s">
-        <x:v>719</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="S643" s="0" t="s">
         <x:v>24</x:v>
@@ -18251,7 +18323,7 @@
     </x:row>
     <x:row r="644" spans="1:19">
       <x:c r="A644" s="0">
-        <x:v>13761</x:v>
+        <x:v>13760</x:v>
       </x:c>
       <x:c r="B644" s="0" t="s">
         <x:v>20</x:v>
@@ -18266,7 +18338,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R644" s="0" t="s">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="S644" s="0" t="s">
         <x:v>24</x:v>
@@ -18274,22 +18346,22 @@
     </x:row>
     <x:row r="645" spans="1:19">
       <x:c r="A645" s="0">
-        <x:v>13762</x:v>
+        <x:v>13761</x:v>
       </x:c>
       <x:c r="B645" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C645" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D645" s="0">
-        <x:v>12585</x:v>
+        <x:v>12621</x:v>
       </x:c>
       <x:c r="E645" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R645" s="0" t="s">
-        <x:v>721</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="S645" s="0" t="s">
         <x:v>24</x:v>
@@ -18297,7 +18369,7 @@
     </x:row>
     <x:row r="646" spans="1:19">
       <x:c r="A646" s="0">
-        <x:v>13763</x:v>
+        <x:v>13762</x:v>
       </x:c>
       <x:c r="B646" s="0" t="s">
         <x:v>40</x:v>
@@ -18312,7 +18384,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R646" s="0" t="s">
-        <x:v>722</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="S646" s="0" t="s">
         <x:v>24</x:v>
@@ -18320,22 +18392,22 @@
     </x:row>
     <x:row r="647" spans="1:19">
       <x:c r="A647" s="0">
-        <x:v>13764</x:v>
+        <x:v>13763</x:v>
       </x:c>
       <x:c r="B647" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C647" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D647" s="0">
-        <x:v>12619</x:v>
+        <x:v>12585</x:v>
       </x:c>
       <x:c r="E647" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R647" s="0" t="s">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="S647" s="0" t="s">
         <x:v>24</x:v>
@@ -18343,22 +18415,22 @@
     </x:row>
     <x:row r="648" spans="1:19">
       <x:c r="A648" s="0">
-        <x:v>13765</x:v>
+        <x:v>13764</x:v>
       </x:c>
       <x:c r="B648" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C648" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D648" s="0">
-        <x:v>12621</x:v>
+        <x:v>12619</x:v>
       </x:c>
       <x:c r="E648" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R648" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="S648" s="0" t="s">
         <x:v>24</x:v>
@@ -18366,7 +18438,7 @@
     </x:row>
     <x:row r="649" spans="1:19">
       <x:c r="A649" s="0">
-        <x:v>13766</x:v>
+        <x:v>13765</x:v>
       </x:c>
       <x:c r="B649" s="0" t="s">
         <x:v>20</x:v>
@@ -18381,7 +18453,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R649" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="S649" s="0" t="s">
         <x:v>24</x:v>
@@ -18389,22 +18461,22 @@
     </x:row>
     <x:row r="650" spans="1:19">
       <x:c r="A650" s="0">
-        <x:v>13767</x:v>
+        <x:v>13766</x:v>
       </x:c>
       <x:c r="B650" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C650" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D650" s="0">
-        <x:v>12585</x:v>
+        <x:v>12621</x:v>
       </x:c>
       <x:c r="E650" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R650" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="S650" s="0" t="s">
         <x:v>24</x:v>
@@ -18412,22 +18484,22 @@
     </x:row>
     <x:row r="651" spans="1:19">
       <x:c r="A651" s="0">
-        <x:v>13768</x:v>
+        <x:v>13767</x:v>
       </x:c>
       <x:c r="B651" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C651" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D651" s="0">
-        <x:v>12619</x:v>
+        <x:v>12585</x:v>
       </x:c>
       <x:c r="E651" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R651" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="S651" s="0" t="s">
         <x:v>24</x:v>
@@ -18435,22 +18507,22 @@
     </x:row>
     <x:row r="652" spans="1:19">
       <x:c r="A652" s="0">
-        <x:v>13769</x:v>
+        <x:v>13768</x:v>
       </x:c>
       <x:c r="B652" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C652" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D652" s="0">
-        <x:v>12585</x:v>
+        <x:v>12619</x:v>
       </x:c>
       <x:c r="E652" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R652" s="0" t="s">
-        <x:v>728</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="S652" s="0" t="s">
         <x:v>24</x:v>
@@ -18458,22 +18530,22 @@
     </x:row>
     <x:row r="653" spans="1:19">
       <x:c r="A653" s="0">
-        <x:v>13770</x:v>
+        <x:v>13769</x:v>
       </x:c>
       <x:c r="B653" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C653" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D653" s="0">
-        <x:v>12619</x:v>
+        <x:v>12585</x:v>
       </x:c>
       <x:c r="E653" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R653" s="0" t="s">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="S653" s="0" t="s">
         <x:v>24</x:v>
@@ -18481,7 +18553,7 @@
     </x:row>
     <x:row r="654" spans="1:19">
       <x:c r="A654" s="0">
-        <x:v>13771</x:v>
+        <x:v>13770</x:v>
       </x:c>
       <x:c r="B654" s="0" t="s">
         <x:v>32</x:v>
@@ -18496,7 +18568,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R654" s="0" t="s">
-        <x:v>730</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="S654" s="0" t="s">
         <x:v>24</x:v>
@@ -18504,22 +18576,22 @@
     </x:row>
     <x:row r="655" spans="1:19">
       <x:c r="A655" s="0">
-        <x:v>13772</x:v>
+        <x:v>13771</x:v>
       </x:c>
       <x:c r="B655" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C655" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D655" s="0">
-        <x:v>12585</x:v>
+        <x:v>12619</x:v>
       </x:c>
       <x:c r="E655" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R655" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="S655" s="0" t="s">
         <x:v>24</x:v>
@@ -18527,22 +18599,22 @@
     </x:row>
     <x:row r="656" spans="1:19">
       <x:c r="A656" s="0">
-        <x:v>13773</x:v>
+        <x:v>13772</x:v>
       </x:c>
       <x:c r="B656" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C656" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D656" s="0">
-        <x:v>12619</x:v>
+        <x:v>12585</x:v>
       </x:c>
       <x:c r="E656" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R656" s="0" t="s">
-        <x:v>732</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="S656" s="0" t="s">
         <x:v>24</x:v>
@@ -18550,7 +18622,7 @@
     </x:row>
     <x:row r="657" spans="1:19">
       <x:c r="A657" s="0">
-        <x:v>13774</x:v>
+        <x:v>13773</x:v>
       </x:c>
       <x:c r="B657" s="0" t="s">
         <x:v>32</x:v>
@@ -18565,7 +18637,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R657" s="0" t="s">
-        <x:v>733</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="S657" s="0" t="s">
         <x:v>24</x:v>
@@ -18573,22 +18645,22 @@
     </x:row>
     <x:row r="658" spans="1:19">
       <x:c r="A658" s="0">
-        <x:v>13775</x:v>
+        <x:v>13774</x:v>
       </x:c>
       <x:c r="B658" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C658" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D658" s="0">
-        <x:v>12621</x:v>
+        <x:v>12619</x:v>
       </x:c>
       <x:c r="E658" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R658" s="0" t="s">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="S658" s="0" t="s">
         <x:v>24</x:v>
@@ -18596,7 +18668,7 @@
     </x:row>
     <x:row r="659" spans="1:19">
       <x:c r="A659" s="0">
-        <x:v>13776</x:v>
+        <x:v>13775</x:v>
       </x:c>
       <x:c r="B659" s="0" t="s">
         <x:v>20</x:v>
@@ -18611,7 +18683,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R659" s="0" t="s">
-        <x:v>735</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="S659" s="0" t="s">
         <x:v>24</x:v>
@@ -18619,22 +18691,22 @@
     </x:row>
     <x:row r="660" spans="1:19">
       <x:c r="A660" s="0">
-        <x:v>13777</x:v>
+        <x:v>13776</x:v>
       </x:c>
       <x:c r="B660" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C660" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D660" s="0">
-        <x:v>12619</x:v>
+        <x:v>12621</x:v>
       </x:c>
       <x:c r="E660" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R660" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="S660" s="0" t="s">
         <x:v>24</x:v>
@@ -18642,7 +18714,7 @@
     </x:row>
     <x:row r="661" spans="1:19">
       <x:c r="A661" s="0">
-        <x:v>13778</x:v>
+        <x:v>13777</x:v>
       </x:c>
       <x:c r="B661" s="0" t="s">
         <x:v>32</x:v>
@@ -18657,7 +18729,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R661" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="S661" s="0" t="s">
         <x:v>24</x:v>
@@ -18665,7 +18737,7 @@
     </x:row>
     <x:row r="662" spans="1:19">
       <x:c r="A662" s="0">
-        <x:v>13779</x:v>
+        <x:v>13778</x:v>
       </x:c>
       <x:c r="B662" s="0" t="s">
         <x:v>32</x:v>
@@ -18680,7 +18752,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R662" s="0" t="s">
-        <x:v>738</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="S662" s="0" t="s">
         <x:v>24</x:v>
@@ -18688,7 +18760,7 @@
     </x:row>
     <x:row r="663" spans="1:19">
       <x:c r="A663" s="0">
-        <x:v>13780</x:v>
+        <x:v>13779</x:v>
       </x:c>
       <x:c r="B663" s="0" t="s">
         <x:v>32</x:v>
@@ -18703,7 +18775,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R663" s="0" t="s">
-        <x:v>739</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="S663" s="0" t="s">
         <x:v>24</x:v>
@@ -18711,7 +18783,7 @@
     </x:row>
     <x:row r="664" spans="1:19">
       <x:c r="A664" s="0">
-        <x:v>13781</x:v>
+        <x:v>13780</x:v>
       </x:c>
       <x:c r="B664" s="0" t="s">
         <x:v>32</x:v>
@@ -18726,7 +18798,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R664" s="0" t="s">
-        <x:v>740</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="S664" s="0" t="s">
         <x:v>24</x:v>
@@ -18734,7 +18806,7 @@
     </x:row>
     <x:row r="665" spans="1:19">
       <x:c r="A665" s="0">
-        <x:v>13782</x:v>
+        <x:v>13781</x:v>
       </x:c>
       <x:c r="B665" s="0" t="s">
         <x:v>32</x:v>
@@ -18749,7 +18821,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R665" s="0" t="s">
-        <x:v>741</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="S665" s="0" t="s">
         <x:v>24</x:v>
@@ -18757,13 +18829,13 @@
     </x:row>
     <x:row r="666" spans="1:19">
       <x:c r="A666" s="0">
-        <x:v>13783</x:v>
+        <x:v>13782</x:v>
       </x:c>
       <x:c r="B666" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C666" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D666" s="0">
         <x:v>12619</x:v>
@@ -18772,7 +18844,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R666" s="0" t="s">
-        <x:v>742</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="S666" s="0" t="s">
         <x:v>24</x:v>
@@ -18780,13 +18852,13 @@
     </x:row>
     <x:row r="667" spans="1:19">
       <x:c r="A667" s="0">
-        <x:v>13784</x:v>
+        <x:v>13783</x:v>
       </x:c>
       <x:c r="B667" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C667" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D667" s="0">
         <x:v>12619</x:v>
@@ -18795,7 +18867,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R667" s="0" t="s">
-        <x:v>743</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="S667" s="0" t="s">
         <x:v>24</x:v>
@@ -18803,22 +18875,22 @@
     </x:row>
     <x:row r="668" spans="1:19">
       <x:c r="A668" s="0">
-        <x:v>13785</x:v>
+        <x:v>13784</x:v>
       </x:c>
       <x:c r="B668" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C668" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D668" s="0">
-        <x:v>12585</x:v>
+        <x:v>12619</x:v>
       </x:c>
       <x:c r="E668" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R668" s="0" t="s">
-        <x:v>744</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="S668" s="0" t="s">
         <x:v>24</x:v>
@@ -18826,7 +18898,7 @@
     </x:row>
     <x:row r="669" spans="1:19">
       <x:c r="A669" s="0">
-        <x:v>13786</x:v>
+        <x:v>13785</x:v>
       </x:c>
       <x:c r="B669" s="0" t="s">
         <x:v>40</x:v>
@@ -18841,7 +18913,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R669" s="0" t="s">
-        <x:v>745</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="S669" s="0" t="s">
         <x:v>24</x:v>
@@ -18849,22 +18921,22 @@
     </x:row>
     <x:row r="670" spans="1:19">
       <x:c r="A670" s="0">
-        <x:v>13787</x:v>
+        <x:v>13786</x:v>
       </x:c>
       <x:c r="B670" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C670" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D670" s="0">
-        <x:v>12619</x:v>
+        <x:v>12585</x:v>
       </x:c>
       <x:c r="E670" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R670" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="S670" s="0" t="s">
         <x:v>24</x:v>
@@ -18872,13 +18944,13 @@
     </x:row>
     <x:row r="671" spans="1:19">
       <x:c r="A671" s="0">
-        <x:v>13788</x:v>
+        <x:v>13787</x:v>
       </x:c>
       <x:c r="B671" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C671" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D671" s="0">
         <x:v>12619</x:v>
@@ -18887,7 +18959,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R671" s="0" t="s">
-        <x:v>747</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="S671" s="0" t="s">
         <x:v>24</x:v>
@@ -18895,7 +18967,7 @@
     </x:row>
     <x:row r="672" spans="1:19">
       <x:c r="A672" s="0">
-        <x:v>13789</x:v>
+        <x:v>13788</x:v>
       </x:c>
       <x:c r="B672" s="0" t="s">
         <x:v>32</x:v>
@@ -18910,7 +18982,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R672" s="0" t="s">
-        <x:v>742</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="S672" s="0" t="s">
         <x:v>24</x:v>
@@ -18918,7 +18990,7 @@
     </x:row>
     <x:row r="673" spans="1:19">
       <x:c r="A673" s="0">
-        <x:v>13790</x:v>
+        <x:v>13789</x:v>
       </x:c>
       <x:c r="B673" s="0" t="s">
         <x:v>32</x:v>
@@ -18933,7 +19005,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R673" s="0" t="s">
-        <x:v>748</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="S673" s="0" t="s">
         <x:v>24</x:v>
@@ -18941,7 +19013,7 @@
     </x:row>
     <x:row r="674" spans="1:19">
       <x:c r="A674" s="0">
-        <x:v>13791</x:v>
+        <x:v>13790</x:v>
       </x:c>
       <x:c r="B674" s="0" t="s">
         <x:v>32</x:v>
@@ -18956,7 +19028,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R674" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="S674" s="0" t="s">
         <x:v>24</x:v>
@@ -18964,7 +19036,7 @@
     </x:row>
     <x:row r="675" spans="1:19">
       <x:c r="A675" s="0">
-        <x:v>13792</x:v>
+        <x:v>13791</x:v>
       </x:c>
       <x:c r="B675" s="0" t="s">
         <x:v>32</x:v>
@@ -18979,7 +19051,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R675" s="0" t="s">
-        <x:v>750</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="S675" s="0" t="s">
         <x:v>24</x:v>
@@ -18987,22 +19059,22 @@
     </x:row>
     <x:row r="676" spans="1:19">
       <x:c r="A676" s="0">
-        <x:v>13793</x:v>
+        <x:v>13792</x:v>
       </x:c>
       <x:c r="B676" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C676" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D676" s="0">
-        <x:v>12585</x:v>
+        <x:v>12619</x:v>
       </x:c>
       <x:c r="E676" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R676" s="0" t="s">
-        <x:v>751</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="S676" s="0" t="s">
         <x:v>24</x:v>
@@ -19010,22 +19082,22 @@
     </x:row>
     <x:row r="677" spans="1:19">
       <x:c r="A677" s="0">
-        <x:v>13794</x:v>
+        <x:v>13793</x:v>
       </x:c>
       <x:c r="B677" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C677" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D677" s="0">
-        <x:v>12619</x:v>
+        <x:v>12585</x:v>
       </x:c>
       <x:c r="E677" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R677" s="0" t="s">
-        <x:v>752</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="S677" s="0" t="s">
         <x:v>24</x:v>
@@ -19033,7 +19105,7 @@
     </x:row>
     <x:row r="678" spans="1:19">
       <x:c r="A678" s="0">
-        <x:v>13795</x:v>
+        <x:v>13794</x:v>
       </x:c>
       <x:c r="B678" s="0" t="s">
         <x:v>32</x:v>
@@ -19048,7 +19120,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R678" s="0" t="s">
-        <x:v>753</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="S678" s="0" t="s">
         <x:v>24</x:v>
@@ -19056,7 +19128,7 @@
     </x:row>
     <x:row r="679" spans="1:19">
       <x:c r="A679" s="0">
-        <x:v>13796</x:v>
+        <x:v>13795</x:v>
       </x:c>
       <x:c r="B679" s="0" t="s">
         <x:v>32</x:v>
@@ -19071,7 +19143,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R679" s="0" t="s">
-        <x:v>754</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="S679" s="0" t="s">
         <x:v>24</x:v>
@@ -19079,22 +19151,22 @@
     </x:row>
     <x:row r="680" spans="1:19">
       <x:c r="A680" s="0">
-        <x:v>13797</x:v>
+        <x:v>13796</x:v>
       </x:c>
       <x:c r="B680" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C680" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D680" s="0">
-        <x:v>12585</x:v>
+        <x:v>12619</x:v>
       </x:c>
       <x:c r="E680" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R680" s="0" t="s">
-        <x:v>755</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="S680" s="0" t="s">
         <x:v>24</x:v>
@@ -19102,7 +19174,7 @@
     </x:row>
     <x:row r="681" spans="1:19">
       <x:c r="A681" s="0">
-        <x:v>13798</x:v>
+        <x:v>13797</x:v>
       </x:c>
       <x:c r="B681" s="0" t="s">
         <x:v>40</x:v>
@@ -19117,7 +19189,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R681" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="S681" s="0" t="s">
         <x:v>24</x:v>
@@ -19125,7 +19197,7 @@
     </x:row>
     <x:row r="682" spans="1:19">
       <x:c r="A682" s="0">
-        <x:v>13799</x:v>
+        <x:v>13798</x:v>
       </x:c>
       <x:c r="B682" s="0" t="s">
         <x:v>40</x:v>
@@ -19140,7 +19212,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R682" s="0" t="s">
-        <x:v>757</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="S682" s="0" t="s">
         <x:v>24</x:v>
@@ -19148,13 +19220,13 @@
     </x:row>
     <x:row r="683" spans="1:19">
       <x:c r="A683" s="0">
-        <x:v>13804</x:v>
+        <x:v>13799</x:v>
       </x:c>
       <x:c r="B683" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C683" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D683" s="0">
         <x:v>12585</x:v>
@@ -19162,26 +19234,8 @@
       <x:c r="E683" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="L683" s="0" t="s">
-        <x:v>758</x:v>
-      </x:c>
-      <x:c r="M683" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N683" s="0" t="s">
+      <x:c r="R683" s="0" t="s">
         <x:v>759</x:v>
-      </x:c>
-      <x:c r="O683" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P683" s="0" t="s">
-        <x:v>760</x:v>
-      </x:c>
-      <x:c r="Q683" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R683" s="0" t="s">
-        <x:v>761</x:v>
       </x:c>
       <x:c r="S683" s="0" t="s">
         <x:v>24</x:v>
@@ -19189,19 +19243,37 @@
     </x:row>
     <x:row r="684" spans="1:19">
       <x:c r="A684" s="0">
-        <x:v>13805</x:v>
+        <x:v>13804</x:v>
       </x:c>
       <x:c r="B684" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C684" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D684" s="0">
+        <x:v>12585</x:v>
+      </x:c>
+      <x:c r="E684" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L684" s="0" t="s">
+        <x:v>760</x:v>
+      </x:c>
+      <x:c r="M684" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N684" s="0" t="s">
+        <x:v>761</x:v>
+      </x:c>
+      <x:c r="O684" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P684" s="0" t="s">
         <x:v>762</x:v>
       </x:c>
-      <x:c r="C684" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="D684" s="0">
-        <x:v>12629</x:v>
-      </x:c>
-      <x:c r="E684" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="Q684" s="0" t="s">
+        <x:v>24</x:v>
       </x:c>
       <x:c r="R684" s="0" t="s">
         <x:v>763</x:v>
@@ -19212,10 +19284,10 @@
     </x:row>
     <x:row r="685" spans="1:19">
       <x:c r="A685" s="0">
-        <x:v>13806</x:v>
+        <x:v>13805</x:v>
       </x:c>
       <x:c r="B685" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="C685" s="0" t="s">
         <x:v>140</x:v>
@@ -19227,7 +19299,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R685" s="0" t="s">
-        <x:v>763</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="S685" s="0" t="s">
         <x:v>24</x:v>
@@ -19235,10 +19307,10 @@
     </x:row>
     <x:row r="686" spans="1:19">
       <x:c r="A686" s="0">
-        <x:v>13807</x:v>
+        <x:v>13806</x:v>
       </x:c>
       <x:c r="B686" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="C686" s="0" t="s">
         <x:v>140</x:v>
@@ -19250,7 +19322,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R686" s="0" t="s">
-        <x:v>764</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="S686" s="0" t="s">
         <x:v>24</x:v>
@@ -19258,10 +19330,10 @@
     </x:row>
     <x:row r="687" spans="1:19">
       <x:c r="A687" s="0">
-        <x:v>13808</x:v>
+        <x:v>13807</x:v>
       </x:c>
       <x:c r="B687" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="C687" s="0" t="s">
         <x:v>140</x:v>
@@ -19273,7 +19345,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R687" s="0" t="s">
-        <x:v>765</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="S687" s="0" t="s">
         <x:v>24</x:v>
@@ -19281,10 +19353,10 @@
     </x:row>
     <x:row r="688" spans="1:19">
       <x:c r="A688" s="0">
-        <x:v>13809</x:v>
+        <x:v>13808</x:v>
       </x:c>
       <x:c r="B688" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="C688" s="0" t="s">
         <x:v>140</x:v>
@@ -19296,7 +19368,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R688" s="0" t="s">
-        <x:v>766</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="S688" s="0" t="s">
         <x:v>24</x:v>
@@ -19304,10 +19376,10 @@
     </x:row>
     <x:row r="689" spans="1:19">
       <x:c r="A689" s="0">
-        <x:v>13810</x:v>
+        <x:v>13809</x:v>
       </x:c>
       <x:c r="B689" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="C689" s="0" t="s">
         <x:v>140</x:v>
@@ -19319,7 +19391,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R689" s="0" t="s">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="S689" s="0" t="s">
         <x:v>24</x:v>
@@ -19327,16 +19399,16 @@
     </x:row>
     <x:row r="690" spans="1:19">
       <x:c r="A690" s="0">
-        <x:v>13811</x:v>
+        <x:v>13810</x:v>
       </x:c>
       <x:c r="B690" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="C690" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
       <x:c r="D690" s="0">
-        <x:v>12531</x:v>
+        <x:v>12629</x:v>
       </x:c>
       <x:c r="E690" s="0" t="s">
         <x:v>22</x:v>
@@ -19350,10 +19422,10 @@
     </x:row>
     <x:row r="691" spans="1:19">
       <x:c r="A691" s="0">
-        <x:v>13812</x:v>
+        <x:v>13811</x:v>
       </x:c>
       <x:c r="B691" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C691" s="0" t="s">
         <x:v>140</x:v>
@@ -19365,7 +19437,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R691" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="S691" s="0" t="s">
         <x:v>24</x:v>
@@ -19373,10 +19445,10 @@
     </x:row>
     <x:row r="692" spans="1:19">
       <x:c r="A692" s="0">
-        <x:v>13813</x:v>
+        <x:v>13812</x:v>
       </x:c>
       <x:c r="B692" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C692" s="0" t="s">
         <x:v>140</x:v>
@@ -19388,7 +19460,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R692" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="S692" s="0" t="s">
         <x:v>24</x:v>
@@ -19396,10 +19468,10 @@
     </x:row>
     <x:row r="693" spans="1:19">
       <x:c r="A693" s="0">
-        <x:v>13814</x:v>
+        <x:v>13813</x:v>
       </x:c>
       <x:c r="B693" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C693" s="0" t="s">
         <x:v>140</x:v>
@@ -19411,7 +19483,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R693" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="S693" s="0" t="s">
         <x:v>24</x:v>
@@ -19419,10 +19491,10 @@
     </x:row>
     <x:row r="694" spans="1:19">
       <x:c r="A694" s="0">
-        <x:v>13815</x:v>
+        <x:v>13814</x:v>
       </x:c>
       <x:c r="B694" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C694" s="0" t="s">
         <x:v>140</x:v>
@@ -19434,7 +19506,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R694" s="0" t="s">
-        <x:v>773</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="S694" s="0" t="s">
         <x:v>24</x:v>
@@ -19442,10 +19514,10 @@
     </x:row>
     <x:row r="695" spans="1:19">
       <x:c r="A695" s="0">
-        <x:v>13816</x:v>
+        <x:v>13815</x:v>
       </x:c>
       <x:c r="B695" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C695" s="0" t="s">
         <x:v>140</x:v>
@@ -19457,7 +19529,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R695" s="0" t="s">
-        <x:v>774</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="S695" s="0" t="s">
         <x:v>24</x:v>
@@ -19465,10 +19537,10 @@
     </x:row>
     <x:row r="696" spans="1:19">
       <x:c r="A696" s="0">
-        <x:v>13817</x:v>
+        <x:v>13816</x:v>
       </x:c>
       <x:c r="B696" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C696" s="0" t="s">
         <x:v>140</x:v>
@@ -19480,7 +19552,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R696" s="0" t="s">
-        <x:v>775</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="S696" s="0" t="s">
         <x:v>24</x:v>
@@ -19488,10 +19560,10 @@
     </x:row>
     <x:row r="697" spans="1:19">
       <x:c r="A697" s="0">
-        <x:v>13818</x:v>
+        <x:v>13817</x:v>
       </x:c>
       <x:c r="B697" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C697" s="0" t="s">
         <x:v>140</x:v>
@@ -19503,7 +19575,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R697" s="0" t="s">
-        <x:v>776</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="S697" s="0" t="s">
         <x:v>24</x:v>
@@ -19511,10 +19583,10 @@
     </x:row>
     <x:row r="698" spans="1:19">
       <x:c r="A698" s="0">
-        <x:v>13819</x:v>
+        <x:v>13818</x:v>
       </x:c>
       <x:c r="B698" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C698" s="0" t="s">
         <x:v>140</x:v>
@@ -19526,7 +19598,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R698" s="0" t="s">
-        <x:v>777</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="S698" s="0" t="s">
         <x:v>24</x:v>
@@ -19534,10 +19606,10 @@
     </x:row>
     <x:row r="699" spans="1:19">
       <x:c r="A699" s="0">
-        <x:v>13820</x:v>
+        <x:v>13819</x:v>
       </x:c>
       <x:c r="B699" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C699" s="0" t="s">
         <x:v>140</x:v>
@@ -19549,7 +19621,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R699" s="0" t="s">
-        <x:v>776</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="S699" s="0" t="s">
         <x:v>24</x:v>
@@ -19557,10 +19629,10 @@
     </x:row>
     <x:row r="700" spans="1:19">
       <x:c r="A700" s="0">
-        <x:v>13821</x:v>
+        <x:v>13820</x:v>
       </x:c>
       <x:c r="B700" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C700" s="0" t="s">
         <x:v>140</x:v>
@@ -19580,10 +19652,10 @@
     </x:row>
     <x:row r="701" spans="1:19">
       <x:c r="A701" s="0">
-        <x:v>13822</x:v>
+        <x:v>13821</x:v>
       </x:c>
       <x:c r="B701" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C701" s="0" t="s">
         <x:v>140</x:v>
@@ -19595,7 +19667,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R701" s="0" t="s">
-        <x:v>779</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="S701" s="0" t="s">
         <x:v>24</x:v>
@@ -19603,10 +19675,10 @@
     </x:row>
     <x:row r="702" spans="1:19">
       <x:c r="A702" s="0">
-        <x:v>13823</x:v>
+        <x:v>13822</x:v>
       </x:c>
       <x:c r="B702" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C702" s="0" t="s">
         <x:v>140</x:v>
@@ -19618,7 +19690,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R702" s="0" t="s">
-        <x:v>780</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="S702" s="0" t="s">
         <x:v>24</x:v>
@@ -19626,10 +19698,10 @@
     </x:row>
     <x:row r="703" spans="1:19">
       <x:c r="A703" s="0">
-        <x:v>13824</x:v>
+        <x:v>13823</x:v>
       </x:c>
       <x:c r="B703" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C703" s="0" t="s">
         <x:v>140</x:v>
@@ -19641,7 +19713,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R703" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="S703" s="0" t="s">
         <x:v>24</x:v>
@@ -19649,10 +19721,10 @@
     </x:row>
     <x:row r="704" spans="1:19">
       <x:c r="A704" s="0">
-        <x:v>13825</x:v>
+        <x:v>13824</x:v>
       </x:c>
       <x:c r="B704" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C704" s="0" t="s">
         <x:v>140</x:v>
@@ -19664,7 +19736,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R704" s="0" t="s">
-        <x:v>782</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="S704" s="0" t="s">
         <x:v>24</x:v>
@@ -19672,10 +19744,10 @@
     </x:row>
     <x:row r="705" spans="1:19">
       <x:c r="A705" s="0">
-        <x:v>13826</x:v>
+        <x:v>13825</x:v>
       </x:c>
       <x:c r="B705" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C705" s="0" t="s">
         <x:v>140</x:v>
@@ -19687,7 +19759,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R705" s="0" t="s">
-        <x:v>783</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="S705" s="0" t="s">
         <x:v>24</x:v>
@@ -19695,10 +19767,10 @@
     </x:row>
     <x:row r="706" spans="1:19">
       <x:c r="A706" s="0">
-        <x:v>13827</x:v>
+        <x:v>13826</x:v>
       </x:c>
       <x:c r="B706" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C706" s="0" t="s">
         <x:v>140</x:v>
@@ -19710,7 +19782,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R706" s="0" t="s">
-        <x:v>784</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="S706" s="0" t="s">
         <x:v>24</x:v>
@@ -19718,10 +19790,10 @@
     </x:row>
     <x:row r="707" spans="1:19">
       <x:c r="A707" s="0">
-        <x:v>13828</x:v>
+        <x:v>13827</x:v>
       </x:c>
       <x:c r="B707" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C707" s="0" t="s">
         <x:v>140</x:v>
@@ -19733,7 +19805,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R707" s="0" t="s">
-        <x:v>785</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="S707" s="0" t="s">
         <x:v>24</x:v>
@@ -19741,10 +19813,10 @@
     </x:row>
     <x:row r="708" spans="1:19">
       <x:c r="A708" s="0">
-        <x:v>13829</x:v>
+        <x:v>13828</x:v>
       </x:c>
       <x:c r="B708" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C708" s="0" t="s">
         <x:v>140</x:v>
@@ -19756,7 +19828,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R708" s="0" t="s">
-        <x:v>786</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="S708" s="0" t="s">
         <x:v>24</x:v>
@@ -19764,10 +19836,10 @@
     </x:row>
     <x:row r="709" spans="1:19">
       <x:c r="A709" s="0">
-        <x:v>13830</x:v>
+        <x:v>13829</x:v>
       </x:c>
       <x:c r="B709" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C709" s="0" t="s">
         <x:v>140</x:v>
@@ -19779,7 +19851,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R709" s="0" t="s">
-        <x:v>787</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="S709" s="0" t="s">
         <x:v>24</x:v>
@@ -19787,40 +19859,22 @@
     </x:row>
     <x:row r="710" spans="1:19">
       <x:c r="A710" s="0">
-        <x:v>13831</x:v>
+        <x:v>13830</x:v>
       </x:c>
       <x:c r="B710" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C710" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D710" s="0">
-        <x:v>12585</x:v>
+        <x:v>12531</x:v>
       </x:c>
       <x:c r="E710" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="L710" s="0" t="s">
-        <x:v>788</x:v>
-      </x:c>
-      <x:c r="M710" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N710" s="0" t="s">
+      <x:c r="R710" s="0" t="s">
         <x:v>789</x:v>
-      </x:c>
-      <x:c r="O710" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P710" s="0" t="s">
-        <x:v>790</x:v>
-      </x:c>
-      <x:c r="Q710" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R710" s="0" t="s">
-        <x:v>791</x:v>
       </x:c>
       <x:c r="S710" s="0" t="s">
         <x:v>24</x:v>
@@ -19828,7 +19882,7 @@
     </x:row>
     <x:row r="711" spans="1:19">
       <x:c r="A711" s="0">
-        <x:v>13832</x:v>
+        <x:v>13831</x:v>
       </x:c>
       <x:c r="B711" s="0" t="s">
         <x:v>40</x:v>
@@ -19843,25 +19897,25 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="L711" s="0" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="M711" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N711" s="0" t="s">
+        <x:v>791</x:v>
+      </x:c>
+      <x:c r="O711" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P711" s="0" t="s">
         <x:v>792</x:v>
       </x:c>
-      <x:c r="M711" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N711" s="0" t="s">
+      <x:c r="Q711" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R711" s="0" t="s">
         <x:v>793</x:v>
-      </x:c>
-      <x:c r="O711" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P711" s="0" t="s">
-        <x:v>790</x:v>
-      </x:c>
-      <x:c r="Q711" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R711" s="0" t="s">
-        <x:v>794</x:v>
       </x:c>
       <x:c r="S711" s="0" t="s">
         <x:v>24</x:v>
@@ -19869,13 +19923,13 @@
     </x:row>
     <x:row r="712" spans="1:19">
       <x:c r="A712" s="0">
-        <x:v>13833</x:v>
+        <x:v>13832</x:v>
       </x:c>
       <x:c r="B712" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="C712" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D712" s="0">
         <x:v>12585</x:v>
@@ -19884,25 +19938,25 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="L712" s="0" t="s">
+        <x:v>794</x:v>
+      </x:c>
+      <x:c r="M712" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N712" s="0" t="s">
         <x:v>795</x:v>
       </x:c>
-      <x:c r="M712" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N712" s="0" t="s">
-        <x:v>793</x:v>
-      </x:c>
       <x:c r="O712" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="P712" s="0" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="Q712" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R712" s="0" t="s">
         <x:v>796</x:v>
-      </x:c>
-      <x:c r="Q712" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R712" s="0" t="s">
-        <x:v>797</x:v>
       </x:c>
       <x:c r="S712" s="0" t="s">
         <x:v>24</x:v>
@@ -19910,7 +19964,7 @@
     </x:row>
     <x:row r="713" spans="1:19">
       <x:c r="A713" s="0">
-        <x:v>13834</x:v>
+        <x:v>13833</x:v>
       </x:c>
       <x:c r="B713" s="0" t="s">
         <x:v>40</x:v>
@@ -19925,19 +19979,19 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="L713" s="0" t="s">
+        <x:v>797</x:v>
+      </x:c>
+      <x:c r="M713" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N713" s="0" t="s">
         <x:v>795</x:v>
       </x:c>
-      <x:c r="M713" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N713" s="0" t="s">
+      <x:c r="O713" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P713" s="0" t="s">
         <x:v>798</x:v>
-      </x:c>
-      <x:c r="O713" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P713" s="0" t="s">
-        <x:v>796</x:v>
       </x:c>
       <x:c r="Q713" s="0" t="s">
         <x:v>24</x:v>
@@ -19951,13 +20005,13 @@
     </x:row>
     <x:row r="714" spans="1:19">
       <x:c r="A714" s="0">
-        <x:v>13835</x:v>
+        <x:v>13834</x:v>
       </x:c>
       <x:c r="B714" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C714" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D714" s="0">
         <x:v>12585</x:v>
@@ -19966,25 +20020,25 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="L714" s="0" t="s">
+        <x:v>797</x:v>
+      </x:c>
+      <x:c r="M714" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N714" s="0" t="s">
         <x:v>800</x:v>
       </x:c>
-      <x:c r="M714" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N714" s="0" t="s">
+      <x:c r="O714" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P714" s="0" t="s">
+        <x:v>798</x:v>
+      </x:c>
+      <x:c r="Q714" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R714" s="0" t="s">
         <x:v>801</x:v>
-      </x:c>
-      <x:c r="O714" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P714" s="0" t="s">
-        <x:v>802</x:v>
-      </x:c>
-      <x:c r="Q714" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R714" s="0" t="s">
-        <x:v>803</x:v>
       </x:c>
       <x:c r="S714" s="0" t="s">
         <x:v>24</x:v>
@@ -19992,22 +20046,40 @@
     </x:row>
     <x:row r="715" spans="1:19">
       <x:c r="A715" s="0">
-        <x:v>13836</x:v>
+        <x:v>13835</x:v>
       </x:c>
       <x:c r="B715" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C715" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D715" s="0">
-        <x:v>12531</x:v>
+        <x:v>12585</x:v>
       </x:c>
       <x:c r="E715" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
+      <x:c r="L715" s="0" t="s">
+        <x:v>802</x:v>
+      </x:c>
+      <x:c r="M715" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N715" s="0" t="s">
+        <x:v>803</x:v>
+      </x:c>
+      <x:c r="O715" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P715" s="0" t="s">
+        <x:v>804</x:v>
+      </x:c>
+      <x:c r="Q715" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
       <x:c r="R715" s="0" t="s">
-        <x:v>769</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="S715" s="0" t="s">
         <x:v>24</x:v>
@@ -20015,10 +20087,10 @@
     </x:row>
     <x:row r="716" spans="1:19">
       <x:c r="A716" s="0">
-        <x:v>13837</x:v>
+        <x:v>13836</x:v>
       </x:c>
       <x:c r="B716" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C716" s="0" t="s">
         <x:v>140</x:v>
@@ -20030,7 +20102,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R716" s="0" t="s">
-        <x:v>804</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="S716" s="0" t="s">
         <x:v>24</x:v>
@@ -20038,10 +20110,10 @@
     </x:row>
     <x:row r="717" spans="1:19">
       <x:c r="A717" s="0">
-        <x:v>13838</x:v>
+        <x:v>13837</x:v>
       </x:c>
       <x:c r="B717" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C717" s="0" t="s">
         <x:v>140</x:v>
@@ -20053,7 +20125,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R717" s="0" t="s">
-        <x:v>805</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="S717" s="0" t="s">
         <x:v>24</x:v>
@@ -20061,10 +20133,10 @@
     </x:row>
     <x:row r="718" spans="1:19">
       <x:c r="A718" s="0">
-        <x:v>13839</x:v>
+        <x:v>13838</x:v>
       </x:c>
       <x:c r="B718" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C718" s="0" t="s">
         <x:v>140</x:v>
@@ -20076,7 +20148,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R718" s="0" t="s">
-        <x:v>806</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="S718" s="0" t="s">
         <x:v>24</x:v>
@@ -20084,10 +20156,10 @@
     </x:row>
     <x:row r="719" spans="1:19">
       <x:c r="A719" s="0">
-        <x:v>13840</x:v>
+        <x:v>13839</x:v>
       </x:c>
       <x:c r="B719" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C719" s="0" t="s">
         <x:v>140</x:v>
@@ -20099,7 +20171,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R719" s="0" t="s">
-        <x:v>807</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="S719" s="0" t="s">
         <x:v>24</x:v>
@@ -20107,10 +20179,10 @@
     </x:row>
     <x:row r="720" spans="1:19">
       <x:c r="A720" s="0">
-        <x:v>13841</x:v>
+        <x:v>13840</x:v>
       </x:c>
       <x:c r="B720" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C720" s="0" t="s">
         <x:v>140</x:v>
@@ -20122,7 +20194,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R720" s="0" t="s">
-        <x:v>808</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="S720" s="0" t="s">
         <x:v>24</x:v>
@@ -20130,10 +20202,10 @@
     </x:row>
     <x:row r="721" spans="1:19">
       <x:c r="A721" s="0">
-        <x:v>13842</x:v>
+        <x:v>13841</x:v>
       </x:c>
       <x:c r="B721" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C721" s="0" t="s">
         <x:v>140</x:v>
@@ -20145,7 +20217,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R721" s="0" t="s">
-        <x:v>787</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="S721" s="0" t="s">
         <x:v>24</x:v>
@@ -20153,10 +20225,10 @@
     </x:row>
     <x:row r="722" spans="1:19">
       <x:c r="A722" s="0">
-        <x:v>13843</x:v>
+        <x:v>13842</x:v>
       </x:c>
       <x:c r="B722" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C722" s="0" t="s">
         <x:v>140</x:v>
@@ -20168,7 +20240,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R722" s="0" t="s">
-        <x:v>809</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="S722" s="0" t="s">
         <x:v>24</x:v>
@@ -20176,10 +20248,10 @@
     </x:row>
     <x:row r="723" spans="1:19">
       <x:c r="A723" s="0">
-        <x:v>13844</x:v>
+        <x:v>13843</x:v>
       </x:c>
       <x:c r="B723" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C723" s="0" t="s">
         <x:v>140</x:v>
@@ -20191,7 +20263,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R723" s="0" t="s">
-        <x:v>810</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="S723" s="0" t="s">
         <x:v>24</x:v>
@@ -20199,10 +20271,10 @@
     </x:row>
     <x:row r="724" spans="1:19">
       <x:c r="A724" s="0">
-        <x:v>13845</x:v>
+        <x:v>13844</x:v>
       </x:c>
       <x:c r="B724" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C724" s="0" t="s">
         <x:v>140</x:v>
@@ -20214,7 +20286,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R724" s="0" t="s">
-        <x:v>811</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="S724" s="0" t="s">
         <x:v>24</x:v>
@@ -20222,10 +20294,10 @@
     </x:row>
     <x:row r="725" spans="1:19">
       <x:c r="A725" s="0">
-        <x:v>13846</x:v>
+        <x:v>13845</x:v>
       </x:c>
       <x:c r="B725" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C725" s="0" t="s">
         <x:v>140</x:v>
@@ -20237,7 +20309,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R725" s="0" t="s">
-        <x:v>812</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="S725" s="0" t="s">
         <x:v>24</x:v>
@@ -20245,10 +20317,10 @@
     </x:row>
     <x:row r="726" spans="1:19">
       <x:c r="A726" s="0">
-        <x:v>13847</x:v>
+        <x:v>13846</x:v>
       </x:c>
       <x:c r="B726" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C726" s="0" t="s">
         <x:v>140</x:v>
@@ -20260,7 +20332,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R726" s="0" t="s">
-        <x:v>813</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="S726" s="0" t="s">
         <x:v>24</x:v>
@@ -20268,10 +20340,10 @@
     </x:row>
     <x:row r="727" spans="1:19">
       <x:c r="A727" s="0">
-        <x:v>13848</x:v>
+        <x:v>13847</x:v>
       </x:c>
       <x:c r="B727" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C727" s="0" t="s">
         <x:v>140</x:v>
@@ -20283,7 +20355,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R727" s="0" t="s">
-        <x:v>814</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="S727" s="0" t="s">
         <x:v>24</x:v>
@@ -20291,10 +20363,10 @@
     </x:row>
     <x:row r="728" spans="1:19">
       <x:c r="A728" s="0">
-        <x:v>13849</x:v>
+        <x:v>13848</x:v>
       </x:c>
       <x:c r="B728" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C728" s="0" t="s">
         <x:v>140</x:v>
@@ -20306,7 +20378,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R728" s="0" t="s">
-        <x:v>815</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="S728" s="0" t="s">
         <x:v>24</x:v>
@@ -20314,10 +20386,10 @@
     </x:row>
     <x:row r="729" spans="1:19">
       <x:c r="A729" s="0">
-        <x:v>13850</x:v>
+        <x:v>13849</x:v>
       </x:c>
       <x:c r="B729" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C729" s="0" t="s">
         <x:v>140</x:v>
@@ -20329,7 +20401,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R729" s="0" t="s">
-        <x:v>816</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="S729" s="0" t="s">
         <x:v>24</x:v>
@@ -20337,10 +20409,10 @@
     </x:row>
     <x:row r="730" spans="1:19">
       <x:c r="A730" s="0">
-        <x:v>13851</x:v>
+        <x:v>13850</x:v>
       </x:c>
       <x:c r="B730" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C730" s="0" t="s">
         <x:v>140</x:v>
@@ -20352,7 +20424,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R730" s="0" t="s">
-        <x:v>817</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="S730" s="0" t="s">
         <x:v>24</x:v>
@@ -20360,10 +20432,10 @@
     </x:row>
     <x:row r="731" spans="1:19">
       <x:c r="A731" s="0">
-        <x:v>13852</x:v>
+        <x:v>13851</x:v>
       </x:c>
       <x:c r="B731" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C731" s="0" t="s">
         <x:v>140</x:v>
@@ -20375,7 +20447,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R731" s="0" t="s">
-        <x:v>818</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="S731" s="0" t="s">
         <x:v>24</x:v>
@@ -20383,10 +20455,10 @@
     </x:row>
     <x:row r="732" spans="1:19">
       <x:c r="A732" s="0">
-        <x:v>13853</x:v>
+        <x:v>13852</x:v>
       </x:c>
       <x:c r="B732" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C732" s="0" t="s">
         <x:v>140</x:v>
@@ -20398,7 +20470,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R732" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="S732" s="0" t="s">
         <x:v>24</x:v>
@@ -20406,10 +20478,10 @@
     </x:row>
     <x:row r="733" spans="1:19">
       <x:c r="A733" s="0">
-        <x:v>13854</x:v>
+        <x:v>13853</x:v>
       </x:c>
       <x:c r="B733" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C733" s="0" t="s">
         <x:v>140</x:v>
@@ -20421,7 +20493,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R733" s="0" t="s">
-        <x:v>819</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="S733" s="0" t="s">
         <x:v>24</x:v>
@@ -20429,10 +20501,10 @@
     </x:row>
     <x:row r="734" spans="1:19">
       <x:c r="A734" s="0">
-        <x:v>13855</x:v>
+        <x:v>13854</x:v>
       </x:c>
       <x:c r="B734" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C734" s="0" t="s">
         <x:v>140</x:v>
@@ -20444,7 +20516,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R734" s="0" t="s">
-        <x:v>820</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="S734" s="0" t="s">
         <x:v>24</x:v>
@@ -20452,10 +20524,10 @@
     </x:row>
     <x:row r="735" spans="1:19">
       <x:c r="A735" s="0">
-        <x:v>13856</x:v>
+        <x:v>13855</x:v>
       </x:c>
       <x:c r="B735" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C735" s="0" t="s">
         <x:v>140</x:v>
@@ -20467,7 +20539,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R735" s="0" t="s">
-        <x:v>821</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="S735" s="0" t="s">
         <x:v>24</x:v>
@@ -20475,10 +20547,10 @@
     </x:row>
     <x:row r="736" spans="1:19">
       <x:c r="A736" s="0">
-        <x:v>13861</x:v>
+        <x:v>13856</x:v>
       </x:c>
       <x:c r="B736" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C736" s="0" t="s">
         <x:v>140</x:v>
@@ -20490,7 +20562,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R736" s="0" t="s">
-        <x:v>822</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="S736" s="0" t="s">
         <x:v>24</x:v>
@@ -20498,10 +20570,10 @@
     </x:row>
     <x:row r="737" spans="1:19">
       <x:c r="A737" s="0">
-        <x:v>13868</x:v>
+        <x:v>13857</x:v>
       </x:c>
       <x:c r="B737" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C737" s="0" t="s">
         <x:v>140</x:v>
@@ -20513,7 +20585,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R737" s="0" t="s">
-        <x:v>823</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="S737" s="0" t="s">
         <x:v>24</x:v>
@@ -20521,10 +20593,10 @@
     </x:row>
     <x:row r="738" spans="1:19">
       <x:c r="A738" s="0">
-        <x:v>13869</x:v>
+        <x:v>13859</x:v>
       </x:c>
       <x:c r="B738" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C738" s="0" t="s">
         <x:v>140</x:v>
@@ -20536,7 +20608,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R738" s="0" t="s">
-        <x:v>824</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="S738" s="0" t="s">
         <x:v>24</x:v>
@@ -20544,10 +20616,10 @@
     </x:row>
     <x:row r="739" spans="1:19">
       <x:c r="A739" s="0">
-        <x:v>13879</x:v>
+        <x:v>13861</x:v>
       </x:c>
       <x:c r="B739" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C739" s="0" t="s">
         <x:v>140</x:v>
@@ -20559,7 +20631,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R739" s="0" t="s">
-        <x:v>825</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="S739" s="0" t="s">
         <x:v>24</x:v>
@@ -20567,10 +20639,10 @@
     </x:row>
     <x:row r="740" spans="1:19">
       <x:c r="A740" s="0">
-        <x:v>13882</x:v>
+        <x:v>13868</x:v>
       </x:c>
       <x:c r="B740" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C740" s="0" t="s">
         <x:v>140</x:v>
@@ -20582,7 +20654,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R740" s="0" t="s">
-        <x:v>826</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="S740" s="0" t="s">
         <x:v>24</x:v>
@@ -20590,10 +20662,10 @@
     </x:row>
     <x:row r="741" spans="1:19">
       <x:c r="A741" s="0">
-        <x:v>13894</x:v>
+        <x:v>13869</x:v>
       </x:c>
       <x:c r="B741" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C741" s="0" t="s">
         <x:v>140</x:v>
@@ -20605,7 +20677,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R741" s="0" t="s">
-        <x:v>827</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="S741" s="0" t="s">
         <x:v>24</x:v>
@@ -20613,10 +20685,10 @@
     </x:row>
     <x:row r="742" spans="1:19">
       <x:c r="A742" s="0">
-        <x:v>13914</x:v>
+        <x:v>13870</x:v>
       </x:c>
       <x:c r="B742" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C742" s="0" t="s">
         <x:v>140</x:v>
@@ -20628,7 +20700,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R742" s="0" t="s">
-        <x:v>828</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="S742" s="0" t="s">
         <x:v>24</x:v>
@@ -20636,10 +20708,10 @@
     </x:row>
     <x:row r="743" spans="1:19">
       <x:c r="A743" s="0">
-        <x:v>13915</x:v>
+        <x:v>13871</x:v>
       </x:c>
       <x:c r="B743" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C743" s="0" t="s">
         <x:v>140</x:v>
@@ -20651,7 +20723,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R743" s="0" t="s">
-        <x:v>829</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="S743" s="0" t="s">
         <x:v>24</x:v>
@@ -20659,10 +20731,10 @@
     </x:row>
     <x:row r="744" spans="1:19">
       <x:c r="A744" s="0">
-        <x:v>13918</x:v>
+        <x:v>13872</x:v>
       </x:c>
       <x:c r="B744" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C744" s="0" t="s">
         <x:v>140</x:v>
@@ -20674,7 +20746,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R744" s="0" t="s">
-        <x:v>830</x:v>
+        <x:v>831</x:v>
       </x:c>
       <x:c r="S744" s="0" t="s">
         <x:v>24</x:v>
@@ -20682,10 +20754,10 @@
     </x:row>
     <x:row r="745" spans="1:19">
       <x:c r="A745" s="0">
-        <x:v>13920</x:v>
+        <x:v>13874</x:v>
       </x:c>
       <x:c r="B745" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C745" s="0" t="s">
         <x:v>140</x:v>
@@ -20697,9 +20769,538 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R745" s="0" t="s">
-        <x:v>831</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="S745" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="746" spans="1:19">
+      <x:c r="A746" s="0">
+        <x:v>13876</x:v>
+      </x:c>
+      <x:c r="B746" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C746" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D746" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E746" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R746" s="0" t="s">
+        <x:v>833</x:v>
+      </x:c>
+      <x:c r="S746" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="747" spans="1:19">
+      <x:c r="A747" s="0">
+        <x:v>13877</x:v>
+      </x:c>
+      <x:c r="B747" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C747" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D747" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E747" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R747" s="0" t="s">
+        <x:v>834</x:v>
+      </x:c>
+      <x:c r="S747" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="748" spans="1:19">
+      <x:c r="A748" s="0">
+        <x:v>13879</x:v>
+      </x:c>
+      <x:c r="B748" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C748" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D748" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E748" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R748" s="0" t="s">
+        <x:v>835</x:v>
+      </x:c>
+      <x:c r="S748" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="749" spans="1:19">
+      <x:c r="A749" s="0">
+        <x:v>13880</x:v>
+      </x:c>
+      <x:c r="B749" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C749" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D749" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E749" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R749" s="0" t="s">
+        <x:v>836</x:v>
+      </x:c>
+      <x:c r="S749" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="750" spans="1:19">
+      <x:c r="A750" s="0">
+        <x:v>13881</x:v>
+      </x:c>
+      <x:c r="B750" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C750" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D750" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E750" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R750" s="0" t="s">
+        <x:v>837</x:v>
+      </x:c>
+      <x:c r="S750" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="751" spans="1:19">
+      <x:c r="A751" s="0">
+        <x:v>13882</x:v>
+      </x:c>
+      <x:c r="B751" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C751" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D751" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E751" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R751" s="0" t="s">
+        <x:v>838</x:v>
+      </x:c>
+      <x:c r="S751" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="752" spans="1:19">
+      <x:c r="A752" s="0">
+        <x:v>13883</x:v>
+      </x:c>
+      <x:c r="B752" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C752" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D752" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E752" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R752" s="0" t="s">
+        <x:v>839</x:v>
+      </x:c>
+      <x:c r="S752" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="753" spans="1:19">
+      <x:c r="A753" s="0">
+        <x:v>13884</x:v>
+      </x:c>
+      <x:c r="B753" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C753" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D753" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E753" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R753" s="0" t="s">
+        <x:v>840</x:v>
+      </x:c>
+      <x:c r="S753" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="754" spans="1:19">
+      <x:c r="A754" s="0">
+        <x:v>13885</x:v>
+      </x:c>
+      <x:c r="B754" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C754" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D754" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E754" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R754" s="0" t="s">
+        <x:v>841</x:v>
+      </x:c>
+      <x:c r="S754" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="755" spans="1:19">
+      <x:c r="A755" s="0">
+        <x:v>13893</x:v>
+      </x:c>
+      <x:c r="B755" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C755" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D755" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E755" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R755" s="0" t="s">
+        <x:v>842</x:v>
+      </x:c>
+      <x:c r="S755" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="756" spans="1:19">
+      <x:c r="A756" s="0">
+        <x:v>13894</x:v>
+      </x:c>
+      <x:c r="B756" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C756" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D756" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E756" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R756" s="0" t="s">
+        <x:v>843</x:v>
+      </x:c>
+      <x:c r="S756" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="757" spans="1:19">
+      <x:c r="A757" s="0">
+        <x:v>13897</x:v>
+      </x:c>
+      <x:c r="B757" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C757" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D757" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E757" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R757" s="0" t="s">
+        <x:v>844</x:v>
+      </x:c>
+      <x:c r="S757" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="758" spans="1:19">
+      <x:c r="A758" s="0">
+        <x:v>13899</x:v>
+      </x:c>
+      <x:c r="B758" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C758" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D758" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E758" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R758" s="0" t="s">
+        <x:v>845</x:v>
+      </x:c>
+      <x:c r="S758" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="759" spans="1:19">
+      <x:c r="A759" s="0">
+        <x:v>13900</x:v>
+      </x:c>
+      <x:c r="B759" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C759" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D759" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E759" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R759" s="0" t="s">
+        <x:v>846</x:v>
+      </x:c>
+      <x:c r="S759" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="760" spans="1:19">
+      <x:c r="A760" s="0">
+        <x:v>13904</x:v>
+      </x:c>
+      <x:c r="B760" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C760" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D760" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E760" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R760" s="0" t="s">
+        <x:v>847</x:v>
+      </x:c>
+      <x:c r="S760" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="761" spans="1:19">
+      <x:c r="A761" s="0">
+        <x:v>13905</x:v>
+      </x:c>
+      <x:c r="B761" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C761" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D761" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E761" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R761" s="0" t="s">
+        <x:v>848</x:v>
+      </x:c>
+      <x:c r="S761" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="762" spans="1:19">
+      <x:c r="A762" s="0">
+        <x:v>13912</x:v>
+      </x:c>
+      <x:c r="B762" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C762" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D762" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E762" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R762" s="0" t="s">
+        <x:v>849</x:v>
+      </x:c>
+      <x:c r="S762" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="763" spans="1:19">
+      <x:c r="A763" s="0">
+        <x:v>13913</x:v>
+      </x:c>
+      <x:c r="B763" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C763" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D763" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E763" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R763" s="0" t="s">
+        <x:v>850</x:v>
+      </x:c>
+      <x:c r="S763" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="764" spans="1:19">
+      <x:c r="A764" s="0">
+        <x:v>13914</x:v>
+      </x:c>
+      <x:c r="B764" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C764" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D764" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E764" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R764" s="0" t="s">
+        <x:v>851</x:v>
+      </x:c>
+      <x:c r="S764" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="765" spans="1:19">
+      <x:c r="A765" s="0">
+        <x:v>13915</x:v>
+      </x:c>
+      <x:c r="B765" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C765" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D765" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E765" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R765" s="0" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="S765" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="766" spans="1:19">
+      <x:c r="A766" s="0">
+        <x:v>13918</x:v>
+      </x:c>
+      <x:c r="B766" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C766" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D766" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E766" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R766" s="0" t="s">
+        <x:v>853</x:v>
+      </x:c>
+      <x:c r="S766" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="767" spans="1:19">
+      <x:c r="A767" s="0">
+        <x:v>13920</x:v>
+      </x:c>
+      <x:c r="B767" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C767" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D767" s="0">
+        <x:v>12531</x:v>
+      </x:c>
+      <x:c r="E767" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R767" s="0" t="s">
+        <x:v>854</x:v>
+      </x:c>
+      <x:c r="S767" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="768" spans="1:19">
+      <x:c r="A768" s="0">
+        <x:v>13943</x:v>
+      </x:c>
+      <x:c r="B768" s="0" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="C768" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D768" s="0">
+        <x:v>12636</x:v>
+      </x:c>
+      <x:c r="E768" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R768" s="0" t="s">
+        <x:v>855</x:v>
+      </x:c>
+      <x:c r="S768" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
